--- a/electrical/RGBMatrixPanel_CPLD_BOM.xlsx
+++ b/electrical/RGBMatrixPanel_CPLD_BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RGBMatrixPanel_CPLD\electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RGBMatrixPanelCPLD-PhotonBackpack\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="RGBMatrixPanel_CPLD_BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Reference</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve"> Footprint</t>
   </si>
   <si>
+    <t xml:space="preserve"> Datasheet</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DNP</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>PHOTON</t>
   </si>
   <si>
+    <t>Reclaimer_Labs:PHOTON</t>
+  </si>
+  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
     <t>LC4032V-44TQFP</t>
   </si>
   <si>
+    <t>Reclaimer_Labs:QFP_44</t>
+  </si>
+  <si>
     <t>Lattice</t>
   </si>
   <si>
@@ -72,12 +81,15 @@
     <t>220-1034-ND</t>
   </si>
   <si>
-    <t>J5</t>
+    <t>J7</t>
   </si>
   <si>
     <t>CONN_02X08</t>
   </si>
   <si>
+    <t>Reclaimer_Labs:HEADER_THRU_02x08_POL</t>
+  </si>
+  <si>
     <t>Sullins</t>
   </si>
   <si>
@@ -87,205 +99,187 @@
     <t>S9196-ND</t>
   </si>
   <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0603</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0603</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>RC1608F103CS</t>
+  </si>
+  <si>
+    <t>1276-3485-1-ND</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TSOP75238TT</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:TSOP75238TT</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>TSOP75238TR</t>
+  </si>
+  <si>
+    <t>TSOP75238CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1088-1-ND</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RC1608F101CS</t>
+  </si>
+  <si>
+    <t>1276-3482-1-ND</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>BARREL_JACK</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:BARREL_JACK_MPD_EJ508A</t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>PJ-202AH</t>
+  </si>
+  <si>
+    <t>CP-202AH-ND</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Photo_Trans</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:Photo_Trans_0805</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>RPM-075PTT86</t>
+  </si>
+  <si>
+    <t>511-1356-1-ND</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:SMini2-F5-B</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>DB2J20900L</t>
+  </si>
+  <si>
+    <t>DB2J20900LCT-ND</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:c_elec_6.3x5.7</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>UWX1A101MCL1GB</t>
+  </si>
+  <si>
+    <t>493-2096-1-ND</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0805</t>
+  </si>
+  <si>
+    <t>CC0805KKX5R6BB106</t>
+  </si>
+  <si>
+    <t>311-1460-1-ND</t>
+  </si>
+  <si>
+    <t>CONN_01X01</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>36-3547-ND</t>
+  </si>
+  <si>
     <t>J8</t>
   </si>
   <si>
-    <t>CONN_01X08</t>
-  </si>
-  <si>
-    <t>PRPC008SAAN-RC</t>
-  </si>
-  <si>
-    <t>S1011EC-08-ND</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>BZ1</t>
-  </si>
-  <si>
-    <t>PKMCS0909E4000-R1</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>490-9647-1-ND</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>RC1608F103CS</t>
-  </si>
-  <si>
-    <t>1276-3485-1-ND</t>
-  </si>
-  <si>
-    <t>ZENER</t>
-  </si>
-  <si>
-    <t>Diodes Inc</t>
-  </si>
-  <si>
-    <t>MMSZ5231B-7-F</t>
-  </si>
-  <si>
-    <t>MMSZ5231B-FDICT-ND</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>TSOP75238TT</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>TSOP75238TR</t>
-  </si>
-  <si>
-    <t>TSOP75238CT-ND</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB104</t>
-  </si>
-  <si>
-    <t>311-1088-1-ND</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>RC1608F101CS</t>
-  </si>
-  <si>
-    <t>1276-3482-1-ND</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>BARREL_JACK</t>
-  </si>
-  <si>
-    <t>CUI</t>
-  </si>
-  <si>
-    <t>PJ-202AH</t>
-  </si>
-  <si>
-    <t>CP-202AH-ND</t>
-  </si>
-  <si>
-    <t>CONN_01X04</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>B4PS-VH(LF)(SN)</t>
-  </si>
-  <si>
-    <t>455-1650-ND</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>CC0805KKX5R6BB106</t>
-  </si>
-  <si>
-    <t>311-1460-1-ND</t>
-  </si>
-  <si>
-    <t>CONN_02X06</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Photo_Trans</t>
-  </si>
-  <si>
-    <t>Rohm</t>
-  </si>
-  <si>
-    <t>RPM-075PTT86</t>
-  </si>
-  <si>
-    <t>511-1356-1-ND</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>Nichicon</t>
-  </si>
-  <si>
-    <t>UWX1A101MCL1GB</t>
-  </si>
-  <si>
-    <t>493-2096-1-ND</t>
+    <t>CONN_01X06</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x06</t>
+  </si>
+  <si>
+    <t>J6</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>C2 C3 C4 C5 C6</t>
-  </si>
-  <si>
-    <t>D1 D2</t>
-  </si>
-  <si>
-    <t>J1 J2 J3 J6</t>
-  </si>
-  <si>
-    <t>J4 J9</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>6.3x7.7</t>
-  </si>
-  <si>
-    <t>SOD-123</t>
-  </si>
-  <si>
-    <t>TQFP_44</t>
-  </si>
-  <si>
-    <t>HEADER_THRU_01x08_0.1_inch</t>
-  </si>
-  <si>
-    <t>HEADER_THRU_02x08_0.1_inch_POL</t>
-  </si>
-  <si>
-    <t>HEADER_THRU_02x06 _0.1_inch</t>
+    <t>J2 J3 J4 J5</t>
+  </si>
+  <si>
+    <t>3547</t>
+  </si>
+  <si>
+    <t>C3 C4</t>
+  </si>
+  <si>
+    <t>C6 C7 C8 C9 C10</t>
   </si>
 </sst>
 </file>
@@ -831,16 +825,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I17" totalsRowShown="0">
-  <autoFilter ref="A1:I17"/>
-  <sortState ref="A2:I17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16"/>
+  <sortState ref="A2:J17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" name="Reference"/>
     <tableColumn id="10" name="Quantity"/>
     <tableColumn id="2" name=" Value"/>
     <tableColumn id="3" name=" Footprint"/>
+    <tableColumn id="4" name=" Datasheet"/>
     <tableColumn id="5" name=" DNP"/>
     <tableColumn id="6" name=" Manufacturer"/>
     <tableColumn id="7" name=" Manufacturer Part Number"/>
@@ -927,6 +922,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -962,6 +974,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1114,30 +1143,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1160,59 +1191,65 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1220,328 +1257,305 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
+      <c r="J9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/electrical/RGBMatrixPanel_CPLD_BOM.xlsx
+++ b/electrical/RGBMatrixPanel_CPLD_BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="RGBMatrixPanel_CPLD_BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
   <si>
     <t>Reference</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve"> Supplier 1 Part Number</t>
   </si>
   <si>
+    <t xml:space="preserve"> MacroFab Part Number</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t>S9196-ND</t>
   </si>
   <si>
+    <t>C9</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -108,15 +114,18 @@
     <t>Yageo</t>
   </si>
   <si>
+    <t>CC0603KRX7R9BB103</t>
+  </si>
+  <si>
+    <t>311-1085-1-ND</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>Resistors_SMD:R_0603</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -126,160 +135,283 @@
     <t>1276-3485-1-ND</t>
   </si>
   <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1088-1-ND</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RC1608F101CS</t>
+  </si>
+  <si>
+    <t>1276-3482-1-ND</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>BARREL_JACK</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:BARREL_JACK_PJ_202AH_Slots</t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>PJ-202AH</t>
+  </si>
+  <si>
+    <t>CP-202AH-ND</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Photo_Trans</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:Photo_Trans_0805</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>RPM-075PTT86</t>
+  </si>
+  <si>
+    <t>511-1356-1-ND</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>MTHOLE</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:MountingHole_3.5mm_Pad_Via</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>CONN_01X01</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:3547</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>36-3547-ND</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>CONN_01X06</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x06</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>CONN_01X03</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x03</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>73k2</t>
+  </si>
+  <si>
+    <t>RC0603FR-0773K2L</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0805</t>
+  </si>
+  <si>
+    <t>MF-CAP-0805-0.1uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_1206</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM31CR71H475KA12L</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>MF-CAP-0603-0.01uF</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>0.47uF</t>
+  </si>
+  <si>
+    <t>Taiyo</t>
+  </si>
+  <si>
+    <t>EMK212B7474KD-T</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>1.0uF</t>
+  </si>
+  <si>
+    <t>MF-CAP-0603-1uF</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
-    <t>TSOP75238TT</t>
-  </si>
-  <si>
-    <t>Reclaimer_Labs:TSOP75238TT</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>TSOP75238TR</t>
-  </si>
-  <si>
-    <t>TSOP75238CT-ND</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB104</t>
-  </si>
-  <si>
-    <t>311-1088-1-ND</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>RC1608F101CS</t>
-  </si>
-  <si>
-    <t>1276-3482-1-ND</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>BARREL_JACK</t>
-  </si>
-  <si>
-    <t>Reclaimer_Labs:BARREL_JACK_MPD_EJ508A</t>
-  </si>
-  <si>
-    <t>CUI</t>
-  </si>
-  <si>
-    <t>PJ-202AH</t>
-  </si>
-  <si>
-    <t>CP-202AH-ND</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Photo_Trans</t>
-  </si>
-  <si>
-    <t>Reclaimer_Labs:Photo_Trans_0805</t>
-  </si>
-  <si>
-    <t>Rohm</t>
-  </si>
-  <si>
-    <t>RPM-075PTT86</t>
-  </si>
-  <si>
-    <t>511-1356-1-ND</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D_Schottky</t>
-  </si>
-  <si>
-    <t>Reclaimer_Labs:SMini2-F5-B</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>DB2J20900L</t>
-  </si>
-  <si>
-    <t>DB2J20900LCT-ND</t>
+    <t>LM3150</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:TSSOP-14-0.65mm-EP</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>LM3150MHX/NOPB</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>MF-RES-0603-10K</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:SRR1270</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SRP1270-2R2M</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>390pF</t>
+  </si>
+  <si>
+    <t>CL10B391KC8WPNC</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>1k69</t>
+  </si>
+  <si>
+    <t>MF-RES-0603-1.69K</t>
+  </si>
+  <si>
+    <t>C14</t>
   </si>
   <si>
     <t>100uF</t>
   </si>
   <si>
-    <t>Capacitors_SMD:c_elec_6.3x5.7</t>
-  </si>
-  <si>
-    <t>Nichicon</t>
-  </si>
-  <si>
-    <t>UWX1A101MCL1GB</t>
-  </si>
-  <si>
-    <t>493-2096-1-ND</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>Capacitors_SMD:C_0805</t>
-  </si>
-  <si>
-    <t>CC0805KKX5R6BB106</t>
-  </si>
-  <si>
-    <t>311-1460-1-ND</t>
-  </si>
-  <si>
-    <t>CONN_01X01</t>
-  </si>
-  <si>
-    <t>Keystone</t>
-  </si>
-  <si>
-    <t>36-3547-ND</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>CONN_01X06</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x06</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>J2 J3 J4 J5</t>
-  </si>
-  <si>
-    <t>3547</t>
-  </si>
-  <si>
-    <t>C3 C4</t>
-  </si>
-  <si>
-    <t>C6 C7 C8 C9 C10</t>
+    <t>GRM31CR60J107ME39L</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>CSD18531Q5A</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:MOSFET_Q5A</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>CSD17307Q5A</t>
   </si>
 </sst>
 </file>
@@ -348,7 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -741,31 +873,30 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -825,14 +956,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
-  <autoFilter ref="A1:J16"/>
-  <sortState ref="A2:J17">
-    <sortCondition ref="A1:A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J41" totalsRowShown="0">
+  <autoFilter ref="A1:J41"/>
+  <sortState ref="A2:J41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="Reference"/>
-    <tableColumn id="10" name="Quantity"/>
     <tableColumn id="2" name=" Value"/>
     <tableColumn id="3" name=" Footprint"/>
     <tableColumn id="4" name=" Datasheet"/>
@@ -841,6 +971,7 @@
     <tableColumn id="7" name=" Manufacturer Part Number"/>
     <tableColumn id="8" name=" Supplier 1"/>
     <tableColumn id="9" name=" Supplier 1 Part Number"/>
+    <tableColumn id="10" name=" MacroFab Part Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,24 +1274,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1168,394 +1299,747 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>3547</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19">
+        <v>3547</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>3547</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>3547</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
-        <v>40</v>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
